--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.3027365</v>
+        <v>4.311203</v>
       </c>
       <c r="H2">
-        <v>2.605473</v>
+        <v>8.622406</v>
       </c>
       <c r="I2">
-        <v>0.07384773732165571</v>
+        <v>0.168599917917489</v>
       </c>
       <c r="J2">
-        <v>0.06425330510909943</v>
+        <v>0.162674471805938</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +558,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N2">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O2">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P2">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q2">
-        <v>0.02501188943175</v>
+        <v>0.306573956533</v>
       </c>
       <c r="R2">
-        <v>0.100047557727</v>
+        <v>1.226295826132</v>
       </c>
       <c r="S2">
-        <v>0.0002053197192083159</v>
+        <v>0.004571520592200689</v>
       </c>
       <c r="T2">
-        <v>0.0001778139018432163</v>
+        <v>0.004357280801351809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.3027365</v>
+        <v>4.311203</v>
       </c>
       <c r="H3">
-        <v>2.605473</v>
+        <v>8.622406</v>
       </c>
       <c r="I3">
-        <v>0.07384773732165571</v>
+        <v>0.168599917917489</v>
       </c>
       <c r="J3">
-        <v>0.06425330510909943</v>
+        <v>0.162674471805938</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +626,22 @@
         <v>0.193473</v>
       </c>
       <c r="O3">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P3">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q3">
-        <v>0.0840147796215</v>
+        <v>0.278033792673</v>
       </c>
       <c r="R3">
-        <v>0.504088677729</v>
+        <v>1.668202756038</v>
       </c>
       <c r="S3">
-        <v>0.0006896676481920623</v>
+        <v>0.004145939932100725</v>
       </c>
       <c r="T3">
-        <v>0.0008959136704422666</v>
+        <v>0.005927466836916501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.3027365</v>
+        <v>4.311203</v>
       </c>
       <c r="H4">
-        <v>2.605473</v>
+        <v>8.622406</v>
       </c>
       <c r="I4">
-        <v>0.07384773732165571</v>
+        <v>0.168599917917489</v>
       </c>
       <c r="J4">
-        <v>0.06425330510909943</v>
+        <v>0.162674471805938</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N4">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O4">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P4">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q4">
-        <v>8.887047589163251</v>
+        <v>10.7219898838195</v>
       </c>
       <c r="R4">
-        <v>35.548190356653</v>
+        <v>42.887959535278</v>
       </c>
       <c r="S4">
-        <v>0.07295274995425534</v>
+        <v>0.1598824573931876</v>
       </c>
       <c r="T4">
-        <v>0.06317957753681396</v>
+        <v>0.1523897241676697</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -735,10 +732,10 @@
         <v>4.682106</v>
       </c>
       <c r="I5">
-        <v>0.08847093125385119</v>
+        <v>0.0610349893274942</v>
       </c>
       <c r="J5">
-        <v>0.1154649406733999</v>
+        <v>0.08833487085732371</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N5">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O5">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P5">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q5">
-        <v>0.029964698049</v>
+        <v>0.110983079922</v>
       </c>
       <c r="R5">
-        <v>0.179788188294</v>
+        <v>0.665898479532</v>
       </c>
       <c r="S5">
-        <v>0.0002459767546298557</v>
+        <v>0.001654939776969166</v>
       </c>
       <c r="T5">
-        <v>0.0003195364283965078</v>
+        <v>0.002366073991841037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -797,10 +794,10 @@
         <v>4.682106</v>
       </c>
       <c r="I6">
-        <v>0.08847093125385119</v>
+        <v>0.0610349893274942</v>
       </c>
       <c r="J6">
-        <v>0.1154649406733999</v>
+        <v>0.08833487085732371</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -815,10 +812,10 @@
         <v>0.193473</v>
       </c>
       <c r="O6">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P6">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q6">
         <v>0.100651232682</v>
@@ -827,10 +824,10 @@
         <v>0.9058610941380001</v>
       </c>
       <c r="S6">
-        <v>0.0008262343750011211</v>
+        <v>0.001500874986380708</v>
       </c>
       <c r="T6">
-        <v>0.001609981286261558</v>
+        <v>0.003218710420493742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +856,10 @@
         <v>4.682106</v>
       </c>
       <c r="I7">
-        <v>0.08847093125385119</v>
+        <v>0.0610349893274942</v>
       </c>
       <c r="J7">
-        <v>0.1154649406733999</v>
+        <v>0.08833487085732371</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N7">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O7">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P7">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q7">
-        <v>10.646844505011</v>
+        <v>3.881476018563</v>
       </c>
       <c r="R7">
-        <v>63.88106703006601</v>
+        <v>23.288856111378</v>
       </c>
       <c r="S7">
-        <v>0.08739872012422022</v>
+        <v>0.05787917456414433</v>
       </c>
       <c r="T7">
-        <v>0.1135354229587418</v>
+        <v>0.08275008644498892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,19 +909,19 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1772183333333333</v>
+        <v>19.3965805</v>
       </c>
       <c r="H8">
-        <v>0.531655</v>
+        <v>38.793161</v>
       </c>
       <c r="I8">
-        <v>0.0100459094594967</v>
+        <v>0.7585497319843134</v>
       </c>
       <c r="J8">
-        <v>0.01311108997398103</v>
+        <v>0.7318904926719657</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +930,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N8">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O8">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P8">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q8">
-        <v>0.003402503390833334</v>
+        <v>1.3793102359355</v>
       </c>
       <c r="R8">
-        <v>0.020415020345</v>
+        <v>5.517240943741999</v>
       </c>
       <c r="S8">
-        <v>2.793075839862147E-05</v>
+        <v>0.02056777822200169</v>
       </c>
       <c r="T8">
-        <v>3.628348863505981E-05</v>
+        <v>0.01960388963927815</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,19 +971,19 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1772183333333333</v>
+        <v>19.3965805</v>
       </c>
       <c r="H9">
-        <v>0.531655</v>
+        <v>38.793161</v>
       </c>
       <c r="I9">
-        <v>0.0100459094594967</v>
+        <v>0.7585497319843134</v>
       </c>
       <c r="J9">
-        <v>0.01311108997398103</v>
+        <v>0.7318904926719657</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +998,22 @@
         <v>0.193473</v>
       </c>
       <c r="O9">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P9">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q9">
-        <v>0.011428987535</v>
+        <v>1.2509048730255</v>
       </c>
       <c r="R9">
-        <v>0.102860887815</v>
+        <v>7.505429238153</v>
       </c>
       <c r="S9">
-        <v>9.381924216180094E-05</v>
+        <v>0.01865304362637441</v>
       </c>
       <c r="T9">
-        <v>0.0001828140159038237</v>
+        <v>0.0266683307799079</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1772183333333333</v>
+        <v>19.3965805</v>
       </c>
       <c r="H10">
-        <v>0.531655</v>
+        <v>38.793161</v>
       </c>
       <c r="I10">
-        <v>0.0100459094594967</v>
+        <v>0.7585497319843134</v>
       </c>
       <c r="J10">
-        <v>0.01311108997398103</v>
+        <v>0.7318904926719657</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N10">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O10">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P10">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q10">
-        <v>1.2089534314925</v>
+        <v>48.23942178127325</v>
       </c>
       <c r="R10">
-        <v>7.253720588955001</v>
+        <v>192.957687125093</v>
       </c>
       <c r="S10">
-        <v>0.00992415945893628</v>
+        <v>0.7193289101359374</v>
       </c>
       <c r="T10">
-        <v>0.01289199246944214</v>
+        <v>0.6856182722527796</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1083,31 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.069776</v>
+        <v>0.220446</v>
       </c>
       <c r="H11">
-        <v>22.139552</v>
+        <v>0.661338</v>
       </c>
       <c r="I11">
-        <v>0.6275082568559097</v>
+        <v>0.008621068760909376</v>
       </c>
       <c r="J11">
-        <v>0.5459812439563845</v>
+        <v>0.0124771217958416</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1116,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N11">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O11">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P11">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q11">
-        <v>0.212534164312</v>
+        <v>0.015676135506</v>
       </c>
       <c r="R11">
-        <v>0.8501366572480001</v>
+        <v>0.09405681303599998</v>
       </c>
       <c r="S11">
-        <v>0.00174466847287917</v>
+        <v>0.0002337568953418044</v>
       </c>
       <c r="T11">
-        <v>0.001510942591299463</v>
+        <v>0.000334203164476876</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1145,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.069776</v>
+        <v>0.220446</v>
       </c>
       <c r="H12">
-        <v>22.139552</v>
+        <v>0.661338</v>
       </c>
       <c r="I12">
-        <v>0.6275082568559097</v>
+        <v>0.008621068760909376</v>
       </c>
       <c r="J12">
-        <v>0.5459812439563845</v>
+        <v>0.0124771217958416</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,22 +1184,22 @@
         <v>0.193473</v>
       </c>
       <c r="O12">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P12">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q12">
-        <v>0.7139009240160001</v>
+        <v>0.014216782986</v>
       </c>
       <c r="R12">
-        <v>4.283405544096</v>
+        <v>0.127951046874</v>
       </c>
       <c r="S12">
-        <v>0.005860330450503948</v>
+        <v>0.0002119955553639846</v>
       </c>
       <c r="T12">
-        <v>0.007612870021783925</v>
+        <v>0.000454636335031392</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1207,31 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.069776</v>
+        <v>0.220446</v>
       </c>
       <c r="H13">
-        <v>22.139552</v>
+        <v>0.661338</v>
       </c>
       <c r="I13">
-        <v>0.6275082568559097</v>
+        <v>0.008621068760909376</v>
       </c>
       <c r="J13">
-        <v>0.5459812439563845</v>
+        <v>0.0124771217958416</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N13">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O13">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P13">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q13">
-        <v>75.51613554496801</v>
+        <v>0.5482506348990001</v>
       </c>
       <c r="R13">
-        <v>302.064542179872</v>
+        <v>3.289503809394</v>
       </c>
       <c r="S13">
-        <v>0.6199032579325265</v>
+        <v>0.008175316310203587</v>
       </c>
       <c r="T13">
-        <v>0.5368574313433011</v>
+        <v>0.01168828229633333</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1269,31 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.304048</v>
+        <v>0.08168</v>
       </c>
       <c r="H14">
-        <v>9.912144</v>
+        <v>0.24504</v>
       </c>
       <c r="I14">
-        <v>0.1872953347067054</v>
+        <v>0.003194292009794135</v>
       </c>
       <c r="J14">
-        <v>0.244442376765113</v>
+        <v>0.004623042868930905</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1302,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N14">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O14">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P14">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q14">
-        <v>0.063436069576</v>
+        <v>0.00580834648</v>
       </c>
       <c r="R14">
-        <v>0.380616417456</v>
+        <v>0.03485007888</v>
       </c>
       <c r="S14">
-        <v>0.0005207393879044594</v>
+        <v>8.661197395969344E-05</v>
       </c>
       <c r="T14">
-        <v>0.0006764671905146689</v>
+        <v>0.0001238294842023499</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1331,31 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.304048</v>
+        <v>0.08168</v>
       </c>
       <c r="H15">
-        <v>9.912144</v>
+        <v>0.24504</v>
       </c>
       <c r="I15">
-        <v>0.1872953347067054</v>
+        <v>0.003194292009794135</v>
       </c>
       <c r="J15">
-        <v>0.244442376765113</v>
+        <v>0.004623042868930905</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1370,22 @@
         <v>0.193473</v>
       </c>
       <c r="O15">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P15">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q15">
-        <v>0.213081359568</v>
+        <v>0.005267624880000001</v>
       </c>
       <c r="R15">
-        <v>1.917732236112</v>
+        <v>0.04740862392</v>
       </c>
       <c r="S15">
-        <v>0.001749160335703872</v>
+        <v>7.854892791037379E-05</v>
       </c>
       <c r="T15">
-        <v>0.003408373570937903</v>
+        <v>0.0001684525727178724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1393,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.304048</v>
+        <v>0.08168</v>
       </c>
       <c r="H16">
-        <v>9.912144</v>
+        <v>0.24504</v>
       </c>
       <c r="I16">
-        <v>0.1872953347067054</v>
+        <v>0.003194292009794135</v>
       </c>
       <c r="J16">
-        <v>0.244442376765113</v>
+        <v>0.004623042868930905</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,214 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N16">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O16">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P16">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q16">
-        <v>22.539655419864</v>
+        <v>0.20313869092</v>
       </c>
       <c r="R16">
-        <v>135.237932519184</v>
+        <v>1.21883214552</v>
       </c>
       <c r="S16">
-        <v>0.1850254349830971</v>
+        <v>0.003029131107924068</v>
       </c>
       <c r="T16">
-        <v>0.2403575360036605</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.2263643333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.6790929999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.01283183040238123</v>
-      </c>
-      <c r="J17">
-        <v>0.01674704352202217</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.0191995</v>
-      </c>
-      <c r="N17">
-        <v>0.038399</v>
-      </c>
-      <c r="O17">
-        <v>0.002780311579676609</v>
-      </c>
-      <c r="P17">
-        <v>0.002767389187860387</v>
-      </c>
-      <c r="Q17">
-        <v>0.004346082017833333</v>
-      </c>
-      <c r="R17">
-        <v>0.026076492107</v>
-      </c>
-      <c r="S17">
-        <v>3.567648665618689E-05</v>
-      </c>
-      <c r="T17">
-        <v>4.634558717147149E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.2263643333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.6790929999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.01283183040238123</v>
-      </c>
-      <c r="J18">
-        <v>0.01674704352202217</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.06449100000000001</v>
-      </c>
-      <c r="N18">
-        <v>0.193473</v>
-      </c>
-      <c r="O18">
-        <v>0.009339049146327988</v>
-      </c>
-      <c r="P18">
-        <v>0.01394346436998132</v>
-      </c>
-      <c r="Q18">
-        <v>0.014598462221</v>
-      </c>
-      <c r="R18">
-        <v>0.131386159989</v>
-      </c>
-      <c r="S18">
-        <v>0.0001198370947651839</v>
-      </c>
-      <c r="T18">
-        <v>0.0002335118046518426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.2263643333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.6790929999999999</v>
-      </c>
-      <c r="I19">
-        <v>0.01283183040238123</v>
-      </c>
-      <c r="J19">
-        <v>0.01674704352202217</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>6.821830500000001</v>
-      </c>
-      <c r="N19">
-        <v>13.643661</v>
-      </c>
-      <c r="O19">
-        <v>0.9878806392739954</v>
-      </c>
-      <c r="P19">
-        <v>0.9832891464421584</v>
-      </c>
-      <c r="Q19">
-        <v>1.5442191132455</v>
-      </c>
-      <c r="R19">
-        <v>9.265314679473001</v>
-      </c>
-      <c r="S19">
-        <v>0.01267631682095986</v>
-      </c>
-      <c r="T19">
-        <v>0.01646718613019886</v>
+        <v>0.004330760812010682</v>
       </c>
     </row>
   </sheetData>
